--- a/results/mp/logistic/corona/confidence/210/stop-words-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-masking-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,24 +43,24 @@
     <t>fraud</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>died</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>war</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>collapse</t>
   </si>
   <si>
@@ -88,16 +88,22 @@
     <t>lower</t>
   </si>
   <si>
+    <t>cut</t>
+  </si>
+  <si>
     <t>avoid</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>empty</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>risk</t>
+    <t>fight</t>
   </si>
   <si>
     <t>demand</t>
@@ -106,6 +112,9 @@
     <t>oil</t>
   </si>
   <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
@@ -124,112 +133,115 @@
     <t>free</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>important</t>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>helping</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>check</t>
   </si>
   <si>
     <t>shop</t>
-  </si>
-  <si>
-    <t>shopping</t>
   </si>
   <si>
     <t>corona</t>
@@ -590,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,7 +610,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
         <v>44</v>
@@ -659,13 +671,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8611111111111112</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -677,19 +689,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -701,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -709,13 +721,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8235294117647058</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>235</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>235</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -727,19 +739,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -751,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -759,13 +771,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.821917808219178</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C5">
-        <v>240</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>240</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -777,10 +789,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K5">
         <v>0.9083333333333333</v>
@@ -809,13 +821,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8108108108108109</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -827,19 +839,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -851,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -859,13 +871,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7894736842105263</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -877,19 +889,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K7">
-        <v>0.8846153846153846</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -901,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -909,13 +921,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7692307692307693</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -927,19 +939,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L8">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="M8">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -951,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -959,13 +971,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7586206896551724</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -977,19 +989,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>0.8407310704960835</v>
+        <v>0.8198433420365535</v>
       </c>
       <c r="L9">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="M9">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1001,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1009,13 +1021,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7333333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1027,19 +1039,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K10">
-        <v>0.8301886792452831</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L10">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="M10">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1051,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1059,13 +1071,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.576271186440678</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D11">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1077,19 +1089,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>0.8048780487804879</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L11">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="M11">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1101,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1109,13 +1121,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.55</v>
+        <v>0.575</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1127,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>0.7887323943661971</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L12">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="M12">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1151,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1180,16 +1192,16 @@
         <v>23</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L13">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="M13">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1201,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1230,16 +1242,16 @@
         <v>235</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>0.7758620689655172</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="M14">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1251,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1259,13 +1271,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5291005291005291</v>
+        <v>0.5343915343915344</v>
       </c>
       <c r="C15">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D15">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1277,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K15">
-        <v>0.7708333333333334</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1301,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1330,7 +1342,7 @@
         <v>74</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K16">
         <v>0.76875</v>
@@ -1359,13 +1371,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.44</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C17">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D17">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1377,19 +1389,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.765625</v>
       </c>
       <c r="L17">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M17">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1401,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1409,13 +1421,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3928571428571428</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="C18">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1427,19 +1439,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K18">
         <v>0.75</v>
       </c>
       <c r="L18">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M18">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1451,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1480,16 +1492,16 @@
         <v>34</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K19">
-        <v>0.7301587301587301</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L19">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="M19">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1501,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1509,13 +1521,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C20">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1527,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K20">
-        <v>0.7272727272727273</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L20">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M20">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1551,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1559,13 +1571,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2936507936507937</v>
+        <v>0.2987012987012987</v>
       </c>
       <c r="C21">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="D21">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1577,19 +1589,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K21">
-        <v>0.725</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L21">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="M21">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1601,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1609,13 +1621,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2727272727272727</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D22">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1627,19 +1639,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K22">
-        <v>0.7142857142857143</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L22">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M22">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1651,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1659,13 +1671,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1689008042895442</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="C23">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D23">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1677,13 +1689,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>310</v>
+        <v>186</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K23">
-        <v>0.7037037037037037</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L23">
         <v>19</v>
@@ -1701,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1709,13 +1721,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07333333333333333</v>
+        <v>0.2375</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1727,19 +1739,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>278</v>
+        <v>61</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K24">
-        <v>0.6976744186046512</v>
+        <v>0.64</v>
       </c>
       <c r="L24">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M24">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1751,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1759,37 +1771,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01517107811491285</v>
+        <v>0.1639784946236559</v>
       </c>
       <c r="C25">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D25">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E25">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="F25">
-        <v>0.84</v>
+        <v>0.98</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>3051</v>
+        <v>311</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K25">
-        <v>0.6808510638297872</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L25">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="M25">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1801,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1809,89 +1821,137 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01262862488306829</v>
+        <v>0.08666666666666667</v>
       </c>
       <c r="C26">
+        <v>26</v>
+      </c>
+      <c r="D26">
+        <v>26</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>274</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K26">
+        <v>0.6294117647058823</v>
+      </c>
+      <c r="L26">
+        <v>214</v>
+      </c>
+      <c r="M26">
+        <v>214</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>0.01808785529715762</v>
+      </c>
+      <c r="C27">
+        <v>21</v>
+      </c>
+      <c r="D27">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>1140</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27">
+        <v>0.6279069767441861</v>
+      </c>
+      <c r="L27">
         <v>27</v>
       </c>
-      <c r="D26">
-        <v>32</v>
-      </c>
-      <c r="E26">
-        <v>0.16</v>
-      </c>
-      <c r="F26">
-        <v>0.84</v>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>2111</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K26">
-        <v>0.6441176470588236</v>
-      </c>
-      <c r="L26">
-        <v>219</v>
-      </c>
-      <c r="M26">
-        <v>219</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
+      <c r="M27">
+        <v>27</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0.0164463076426959</v>
+      </c>
+      <c r="C28">
+        <v>51</v>
+      </c>
+      <c r="D28">
         <v>57</v>
       </c>
-      <c r="K27">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="L27">
-        <v>21</v>
-      </c>
-      <c r="M27">
-        <v>21</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="E28">
+        <v>0.11</v>
+      </c>
+      <c r="F28">
+        <v>0.89</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>3050</v>
+      </c>
       <c r="J28" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K28">
-        <v>0.62</v>
+        <v>0.6033898305084746</v>
       </c>
       <c r="L28">
-        <v>31</v>
+        <v>178</v>
       </c>
       <c r="M28">
-        <v>31</v>
+        <v>178</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1903,21 +1963,45 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.01358950328022493</v>
+      </c>
+      <c r="C29">
+        <v>29</v>
+      </c>
+      <c r="D29">
+        <v>38</v>
+      </c>
+      <c r="E29">
+        <v>0.24</v>
+      </c>
+      <c r="F29">
+        <v>0.76</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>2105</v>
+      </c>
       <c r="J29" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K29">
-        <v>0.6170212765957447</v>
+        <v>0.6</v>
       </c>
       <c r="L29">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="M29">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1929,21 +2013,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K30">
-        <v>0.6135593220338983</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L30">
-        <v>181</v>
+        <v>55</v>
       </c>
       <c r="M30">
-        <v>181</v>
+        <v>55</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1955,21 +2039,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>114</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K31">
-        <v>0.5899581589958159</v>
+        <v>0.5815899581589958</v>
       </c>
       <c r="L31">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M31">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1981,21 +2065,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K32">
-        <v>0.5714285714285714</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L32">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M32">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2007,21 +2091,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K33">
-        <v>0.5692307692307692</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L33">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M33">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2033,21 +2117,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K34">
-        <v>0.5393258426966292</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L34">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M34">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2059,21 +2143,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K35">
-        <v>0.4705882352941176</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L35">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M35">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2085,21 +2169,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K36">
-        <v>0.4222222222222222</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M36">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2111,21 +2195,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K37">
-        <v>0.4067796610169492</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L37">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M37">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2137,21 +2221,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K38">
-        <v>0.3846153846153846</v>
+        <v>0.359375</v>
       </c>
       <c r="L38">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M38">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2163,21 +2247,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K39">
-        <v>0.3698630136986301</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L39">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M39">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2189,21 +2273,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K40">
-        <v>0.1027027027027027</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L40">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M40">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2215,21 +2299,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>166</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K41">
-        <v>0.05288461538461538</v>
+        <v>0.1834862385321101</v>
       </c>
       <c r="L41">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M41">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2241,33 +2325,59 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>394</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K42">
-        <v>0.01098211484154377</v>
+        <v>0.1189189189189189</v>
       </c>
       <c r="L42">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M42">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="N42">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>3152</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K43">
+        <v>0.01190849263553745</v>
+      </c>
+      <c r="L43">
+        <v>38</v>
+      </c>
+      <c r="M43">
+        <v>48</v>
+      </c>
+      <c r="N43">
+        <v>0.79</v>
+      </c>
+      <c r="O43">
+        <v>0.21</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>3153</v>
       </c>
     </row>
   </sheetData>
